--- a/data/trans_orig/P36B16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B16-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4302</v>
+        <v>4128</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002706797740533267</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01349312350671862</v>
+        <v>0.01294591528632132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4243</v>
+        <v>3041</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00318802772666594</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01342347402443538</v>
+        <v>0.009622598007568473</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>1871</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5885</v>
+        <v>5379</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002946357418699625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007817820239427553</v>
+        <v>0.0007731444595338997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009269750314695093</v>
+        <v>0.008472353983681064</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2051</v>
+        <v>2078</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12171</v>
+        <v>11480</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01708203087822912</v>
+        <v>0.01708203087822913</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006432653301423134</v>
+        <v>0.006518746808948764</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03817083792567962</v>
+        <v>0.03600346379323164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>6561</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2518</v>
+        <v>2503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19235</v>
+        <v>19921</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02075895188452714</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007966665509434669</v>
+        <v>0.007920779019489984</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06085887074801781</v>
+        <v>0.06303046156497973</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -854,19 +854,19 @@
         <v>12008</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6422</v>
+        <v>6773</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25489</v>
+        <v>24414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01891242806521786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01011435402412568</v>
+        <v>0.01066783375646848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04014663465368956</v>
+        <v>0.03845215342939677</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>177280</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>158658</v>
+        <v>158418</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>195827</v>
+        <v>195899</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.556007708027671</v>
+        <v>0.5560077080276711</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.497601279008456</v>
+        <v>0.4968503190738668</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6141771147757793</v>
+        <v>0.6144013649022294</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>324</v>
@@ -904,19 +904,19 @@
         <v>180377</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164915</v>
+        <v>165889</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194666</v>
+        <v>194947</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5707018300164519</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5217808703573734</v>
+        <v>0.5248627353200357</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6159124990079334</v>
+        <v>0.6168029214157029</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>509</v>
@@ -925,19 +925,19 @@
         <v>357657</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>331624</v>
+        <v>333946</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>379242</v>
+        <v>380697</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5633225454983333</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5223202886421513</v>
+        <v>0.5259769247145655</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5973200076903759</v>
+        <v>0.5996120237493568</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>128524</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>110305</v>
+        <v>111243</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147421</v>
+        <v>147737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4030918212967934</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3459505081731694</v>
+        <v>0.3488930516974802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4623591218653267</v>
+        <v>0.4633505346808872</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>198</v>
@@ -975,19 +975,19 @@
         <v>124636</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110526</v>
+        <v>110002</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>140252</v>
+        <v>138540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3943422386150094</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3496997896545844</v>
+        <v>0.3480402964668511</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4437499312256304</v>
+        <v>0.4383334863079273</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -996,19 +996,19 @@
         <v>253160</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>232150</v>
+        <v>230010</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>278877</v>
+        <v>279200</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3987362173823685</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3656451608248263</v>
+        <v>0.3622737565393592</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4392415689927875</v>
+        <v>0.4397508997519246</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>6731</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2989</v>
+        <v>3063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14118</v>
+        <v>13856</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02111164205677316</v>
+        <v>0.02111164205677317</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009375407198110293</v>
+        <v>0.009605911354418791</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04427869487734643</v>
+        <v>0.04345731186629474</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1046,19 +1046,19 @@
         <v>3480</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1483</v>
+        <v>1542</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7142</v>
+        <v>7226</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0110089517573456</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004692010110782588</v>
+        <v>0.004878212020884251</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02259599814325601</v>
+        <v>0.02286408907156395</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -1067,19 +1067,19 @@
         <v>10211</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5638</v>
+        <v>6261</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17079</v>
+        <v>16701</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01608245163538073</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008880428157888047</v>
+        <v>0.009860843453746885</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0268993826001978</v>
+        <v>0.02630459427970021</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8869</v>
+        <v>9148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005198971699116253</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01671272887533149</v>
+        <v>0.0172393516945927</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1192,19 +1192,19 @@
         <v>3776</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1507</v>
+        <v>1309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9379</v>
+        <v>8755</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.006910306096581563</v>
+        <v>0.006910306096581564</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002757179783004241</v>
+        <v>0.002395662626091314</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01716227181470536</v>
+        <v>0.0160201567490489</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1213,19 +1213,19 @@
         <v>6535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2569</v>
+        <v>2850</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13187</v>
+        <v>14364</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.006067227820420159</v>
+        <v>0.006067227820420158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002385022201186424</v>
+        <v>0.002645750809966518</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01224262342366941</v>
+        <v>0.01333552133620375</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>61094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44846</v>
+        <v>44782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81852</v>
+        <v>84375</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1151312994195787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08451239208053556</v>
+        <v>0.08439043774042167</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1542499906636285</v>
+        <v>0.1590046598331356</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -1263,19 +1263,19 @@
         <v>63222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50839</v>
+        <v>51995</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75790</v>
+        <v>76115</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1156869333967407</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09302737038307322</v>
+        <v>0.0951428630599684</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1386838989879559</v>
+        <v>0.1392792894457748</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>138</v>
@@ -1284,19 +1284,19 @@
         <v>124316</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>104869</v>
+        <v>103369</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151963</v>
+        <v>150319</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.115413203764276</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09735852988685283</v>
+        <v>0.09596567481790785</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1410800909596046</v>
+        <v>0.139554006942421</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>389894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>363741</v>
+        <v>363134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>415338</v>
+        <v>414740</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7347515808451232</v>
+        <v>0.7347515808451233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6854666660458955</v>
+        <v>0.6843230292735751</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7827005240546987</v>
+        <v>0.7815742967751881</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>495</v>
@@ -1334,19 +1334,19 @@
         <v>379426</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>358802</v>
+        <v>359172</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>399119</v>
+        <v>398249</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6942907600046525</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6565515985995006</v>
+        <v>0.6572286570245318</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7303259882444181</v>
+        <v>0.7287353181454647</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>779</v>
@@ -1355,19 +1355,19 @@
         <v>769319</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>735753</v>
+        <v>732903</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>798632</v>
+        <v>800126</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7142235324287813</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6830605394861123</v>
+        <v>0.6804146612145364</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7414369597894632</v>
+        <v>0.7428241113078776</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>76900</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56693</v>
+        <v>57744</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99819</v>
+        <v>99249</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1449181480361817</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.106838129391554</v>
+        <v>0.1088189318202049</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1881077153209519</v>
+        <v>0.1870342507773763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -1405,19 +1405,19 @@
         <v>98751</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83715</v>
+        <v>80632</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118028</v>
+        <v>116059</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1806983011904346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1531852783372958</v>
+        <v>0.1475444592443861</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2159735103734942</v>
+        <v>0.2123692890939102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>173</v>
@@ -1426,19 +1426,19 @@
         <v>175651</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151028</v>
+        <v>148572</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>206682</v>
+        <v>208002</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1630714306695375</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1402115367718123</v>
+        <v>0.1379316392428805</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1918801126201504</v>
+        <v>0.193105502665444</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4560</v>
+        <v>4576</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002413699311590529</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.008344087344969227</v>
+        <v>0.008373737836789099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4611</v>
+        <v>4999</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001224605316985092</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004281062773910451</v>
+        <v>0.004641106049457795</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>7767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3800</v>
+        <v>3885</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14036</v>
+        <v>14635</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02457928460973314</v>
+        <v>0.02457928460973313</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01202662002083402</v>
+        <v>0.0122953531830933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04441948746966742</v>
+        <v>0.04631383401258564</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1614,19 +1614,19 @@
         <v>7151</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3668</v>
+        <v>3759</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12862</v>
+        <v>12269</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02028139834372323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01040336409658504</v>
+        <v>0.01066154587153499</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0364789838486902</v>
+        <v>0.03479680652679874</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1635,19 +1635,19 @@
         <v>14918</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9986</v>
+        <v>9095</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22844</v>
+        <v>23054</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02231272848163051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01493556417860118</v>
+        <v>0.0136038365265318</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03416873311198796</v>
+        <v>0.03448219541253293</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>21973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14621</v>
+        <v>14392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31610</v>
+        <v>31352</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06953715073873094</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04627058200569299</v>
+        <v>0.04554658036882107</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.100033112701672</v>
+        <v>0.09921698364767984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1685,19 +1685,19 @@
         <v>31071</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23345</v>
+        <v>23246</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41320</v>
+        <v>40413</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.08812313791508411</v>
+        <v>0.08812313791508412</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06621015318990069</v>
+        <v>0.0659295061285658</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1171913286702764</v>
+        <v>0.1146203449265272</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>77</v>
@@ -1706,19 +1706,19 @@
         <v>53044</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42192</v>
+        <v>41906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65049</v>
+        <v>66088</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07933875564962811</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06310720637971466</v>
+        <v>0.06267903116471207</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09729453103362182</v>
+        <v>0.09884788345961407</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>227263</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>211456</v>
+        <v>210214</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>242621</v>
+        <v>241235</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7192042064023003</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6691783399563574</v>
+        <v>0.6652483426418643</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7678048997251677</v>
+        <v>0.7634193551862996</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>385</v>
@@ -1756,19 +1756,19 @@
         <v>259243</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>244134</v>
+        <v>245491</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>271520</v>
+        <v>272657</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.735264984652959</v>
+        <v>0.7352649846529589</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6924109085165198</v>
+        <v>0.6962592765763163</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7700848838511121</v>
+        <v>0.7733089615312059</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>640</v>
@@ -1777,19 +1777,19 @@
         <v>486508</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>464523</v>
+        <v>464804</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>507088</v>
+        <v>506377</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.727674103722297</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.694791051591542</v>
+        <v>0.6952114487590653</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7584564586467061</v>
+        <v>0.7573924941289584</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>53265</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40500</v>
+        <v>42511</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67626</v>
+        <v>67189</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1685633655777131</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1281665121562504</v>
+        <v>0.134530083776208</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2140119098216942</v>
+        <v>0.2126277572633845</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -1827,19 +1827,19 @@
         <v>51086</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41111</v>
+        <v>41207</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63027</v>
+        <v>62501</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1448893318185124</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1165981513159222</v>
+        <v>0.1168701740121279</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1787563966018666</v>
+        <v>0.1772648713366444</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>140</v>
@@ -1848,19 +1848,19 @@
         <v>104351</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>87289</v>
+        <v>89709</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122474</v>
+        <v>123160</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1560785013973399</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.130558924024445</v>
+        <v>0.1341780675834446</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1831850164522147</v>
+        <v>0.1842109770119507</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>5725</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2469</v>
+        <v>2426</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12100</v>
+        <v>11629</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01811599267152256</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007814262919650426</v>
+        <v>0.007676331568225967</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03829195403357123</v>
+        <v>0.03680029530908323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1898,19 +1898,19 @@
         <v>4034</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1252</v>
+        <v>1301</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9685</v>
+        <v>9733</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01144114726972131</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003551700116804859</v>
+        <v>0.003690720841829677</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02746731599625273</v>
+        <v>0.02760360271109286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1919,19 +1919,19 @@
         <v>9759</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4474</v>
+        <v>5190</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16890</v>
+        <v>17553</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01459591074910452</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006692423904619015</v>
+        <v>0.007763105919401217</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02526208944291779</v>
+        <v>0.02625391631074182</v>
       </c>
     </row>
     <row r="21">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3578</v>
+        <v>3174</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001576170205354784</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009587521569316538</v>
+        <v>0.008505285799051299</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2044,19 +2044,19 @@
         <v>7160</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2542</v>
+        <v>2612</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16002</v>
+        <v>17737</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01696802617389114</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006024735474541754</v>
+        <v>0.006190421861343123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03792293973019881</v>
+        <v>0.04203528016320589</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2065,19 +2065,19 @@
         <v>7748</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2805</v>
+        <v>2736</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16736</v>
+        <v>16857</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009744595586979163</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003528252858895799</v>
+        <v>0.003440914987284876</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02104894411177534</v>
+        <v>0.02120063382808488</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>70713</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>53437</v>
+        <v>55360</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>89816</v>
+        <v>91297</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1895048881260409</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1432066233062016</v>
+        <v>0.1483602403068864</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2406988565099762</v>
+        <v>0.2446677836551397</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>181</v>
@@ -2115,19 +2115,19 @@
         <v>121988</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>103173</v>
+        <v>105468</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>141540</v>
+        <v>142165</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.289097248740194</v>
+        <v>0.2890972487401941</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2445091706747432</v>
+        <v>0.249947027294534</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3354335178052475</v>
+        <v>0.3369155779470103</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>251</v>
@@ -2136,19 +2136,19 @@
         <v>192701</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>167544</v>
+        <v>167111</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>218456</v>
+        <v>219640</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2423583430907637</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2107183258343027</v>
+        <v>0.2101739759353668</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2747510532205887</v>
+        <v>0.2762398765205789</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>263429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>239062</v>
+        <v>238434</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>284919</v>
+        <v>284972</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7059702242148667</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6406671359410419</v>
+        <v>0.6389849769323861</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7635616527484058</v>
+        <v>0.7637043273183199</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>361</v>
@@ -2186,19 +2186,19 @@
         <v>254158</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>231991</v>
+        <v>231228</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>273361</v>
+        <v>272066</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.6023264382285316</v>
+        <v>0.6023264382285317</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5497921119295036</v>
+        <v>0.5479839311060809</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6478356455105473</v>
+        <v>0.6447655354801718</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>558</v>
@@ -2207,19 +2207,19 @@
         <v>517588</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>487844</v>
+        <v>486690</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>549547</v>
+        <v>545271</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6509666863810254</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6135581537972025</v>
+        <v>0.6121057564024487</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6911612603328749</v>
+        <v>0.6857829144362828</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>34666</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21376</v>
+        <v>20407</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50449</v>
+        <v>52084</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09290092735567167</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05728695288833199</v>
+        <v>0.05468957884401295</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1352005360873756</v>
+        <v>0.139581873836224</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -2257,19 +2257,19 @@
         <v>38655</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29688</v>
+        <v>29210</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50285</v>
+        <v>51542</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09160828685738316</v>
+        <v>0.09160828685738318</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07035732919129602</v>
+        <v>0.06922521297810505</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1191699595200084</v>
+        <v>0.1221489275304849</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>74</v>
@@ -2278,19 +2278,19 @@
         <v>73321</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54830</v>
+        <v>56983</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94229</v>
+        <v>95231</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09221492577944072</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06895909227508523</v>
+        <v>0.07166656775159605</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1185109024788932</v>
+        <v>0.1197708294589268</v>
       </c>
     </row>
     <row r="26">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22327</v>
+        <v>22394</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01004779009806598</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05983354708374286</v>
+        <v>0.06001515842390844</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2344,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19215</v>
+        <v>19498</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.004715449161790903</v>
+        <v>0.004715449161790902</v>
       </c>
       <c r="V26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02416603891218869</v>
+        <v>0.02452186143186618</v>
       </c>
     </row>
     <row r="27">
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3069</v>
+        <v>2951</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002892631127114585</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01492227177216266</v>
+        <v>0.01435041414882601</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3712</v>
+        <v>2953</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.001375557497934912</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008581853785624153</v>
+        <v>0.006827768850499943</v>
       </c>
     </row>
     <row r="29">
@@ -2508,19 +2508,19 @@
         <v>13718</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8621</v>
+        <v>8742</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20670</v>
+        <v>20599</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06669988470742626</v>
+        <v>0.06669988470742627</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04191827044056412</v>
+        <v>0.0425042764215342</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1005022460166572</v>
+        <v>0.1001583605706049</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>55</v>
@@ -2529,19 +2529,19 @@
         <v>24407</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18926</v>
+        <v>18639</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31445</v>
+        <v>31751</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1076051897995805</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08343825318243706</v>
+        <v>0.08217566096183217</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1386323680201245</v>
+        <v>0.1399795215142806</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>75</v>
@@ -2550,19 +2550,19 @@
         <v>38125</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30171</v>
+        <v>30227</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>48158</v>
+        <v>48061</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08815314193997142</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06976043114945253</v>
+        <v>0.06989119866103492</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1113513841907</v>
+        <v>0.111127714921471</v>
       </c>
     </row>
     <row r="30">
@@ -2579,19 +2579,19 @@
         <v>161579</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>149579</v>
+        <v>149081</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>171575</v>
+        <v>171370</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7856411722955673</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7272921287563267</v>
+        <v>0.724875010551708</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8342453427905691</v>
+        <v>0.8332495738733369</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>388</v>
@@ -2600,19 +2600,19 @@
         <v>179576</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>169484</v>
+        <v>169918</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>187880</v>
+        <v>188121</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.7917003533114626</v>
+        <v>0.7917003533114624</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7472086587377453</v>
+        <v>0.7491221995957604</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8283122151852627</v>
+        <v>0.8293727471905289</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>613</v>
@@ -2621,19 +2621,19 @@
         <v>341155</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>326415</v>
+        <v>325429</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>354286</v>
+        <v>353549</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7888189793956415</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7547368110256163</v>
+        <v>0.7524570114859014</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8191808631802416</v>
+        <v>0.8174760882252969</v>
       </c>
     </row>
     <row r="31">
@@ -2650,19 +2650,19 @@
         <v>28414</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19550</v>
+        <v>19677</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39223</v>
+        <v>40221</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1381559565012567</v>
+        <v>0.1381559565012568</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09505765345021923</v>
+        <v>0.0956747766503611</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1907153893213014</v>
+        <v>0.1955676375446133</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>47</v>
@@ -2671,19 +2671,19 @@
         <v>22408</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16437</v>
+        <v>16551</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>30310</v>
+        <v>29387</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09879104393135896</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07246765632879845</v>
+        <v>0.07296668406435801</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1336293693047299</v>
+        <v>0.1295576139312224</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>79</v>
@@ -2692,19 +2692,19 @@
         <v>50822</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>40161</v>
+        <v>39955</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>62962</v>
+        <v>63505</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.117510575825178</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09286013363630305</v>
+        <v>0.09238395860865842</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1455799032074822</v>
+        <v>0.146836090939398</v>
       </c>
     </row>
     <row r="32">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6616</v>
+        <v>8075</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006610355368635094</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03216652761211974</v>
+        <v>0.03926523459388318</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.001903412957597999</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.009525201227199413</v>
+        <v>0.009504743751000683</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7928</v>
+        <v>8327</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004141745341274042</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01833057790767048</v>
+        <v>0.01925381360870284</v>
       </c>
     </row>
     <row r="33">
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3305</v>
+        <v>3487</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003677123336267958</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01220733079127162</v>
+        <v>0.01288011853309064</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>1443</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4460</v>
+        <v>4304</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005487110307252855</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.001487627454247423</v>
+        <v>0.001459068080209397</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0169658833928298</v>
+        <v>0.0163726994992789</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -2909,19 +2909,19 @@
         <v>2438</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5462</v>
+        <v>5400</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.004568878409127398</v>
+        <v>0.004568878409127399</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001649277001440589</v>
+        <v>0.001654825135114357</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01023568790748111</v>
+        <v>0.01011987792461001</v>
       </c>
     </row>
     <row r="35">
@@ -2938,19 +2938,19 @@
         <v>22640</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16202</v>
+        <v>16082</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>32012</v>
+        <v>31602</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08363307171167078</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05984929268371317</v>
+        <v>0.05940791882687003</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.118253237978861</v>
+        <v>0.1167405995823265</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>50</v>
@@ -2959,19 +2959,19 @@
         <v>24342</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>18364</v>
+        <v>18701</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32196</v>
+        <v>32617</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.09259039274064466</v>
+        <v>0.09259039274064468</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06985303803317233</v>
+        <v>0.07113198520143263</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.122462463904945</v>
+        <v>0.1240670533026552</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>86</v>
@@ -2980,19 +2980,19 @@
         <v>46982</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>37910</v>
+        <v>37533</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>58052</v>
+        <v>57539</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.0880462175491082</v>
+        <v>0.08804621754910824</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07104500156400018</v>
+        <v>0.07033839963913689</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1087907806995158</v>
+        <v>0.1078306301896641</v>
       </c>
     </row>
     <row r="36">
@@ -3009,19 +3009,19 @@
         <v>192290</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>177938</v>
+        <v>177490</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>205746</v>
+        <v>204941</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7103263736290412</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6573090709838278</v>
+        <v>0.6556533283196321</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7600334897669264</v>
+        <v>0.7570592912498892</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>346</v>
@@ -3030,19 +3030,19 @@
         <v>200070</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>188975</v>
+        <v>188252</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>210391</v>
+        <v>211172</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7610093828803894</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7188076817681514</v>
+        <v>0.716054972902288</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.800267364124428</v>
+        <v>0.8032368682391484</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>610</v>
@@ -3051,19 +3051,19 @@
         <v>392360</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>373421</v>
+        <v>374685</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>408323</v>
+        <v>409449</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.7352971780227755</v>
+        <v>0.7352971780227756</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6998042283462734</v>
+        <v>0.7021728889077021</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7652119961493712</v>
+        <v>0.7673223941946452</v>
       </c>
     </row>
     <row r="37">
@@ -3080,19 +3080,19 @@
         <v>53912</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>42250</v>
+        <v>42774</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>66447</v>
+        <v>67281</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1991537006423428</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1560744723181802</v>
+        <v>0.1580101832143213</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2454558859466216</v>
+        <v>0.2485387426385776</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>58</v>
@@ -3101,19 +3101,19 @@
         <v>35680</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>27264</v>
+        <v>26937</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>44998</v>
+        <v>46404</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1357168650801076</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1037031343147832</v>
+        <v>0.1024591938111699</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1711606452912667</v>
+        <v>0.1765066601590589</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>126</v>
@@ -3122,19 +3122,19 @@
         <v>89592</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>76552</v>
+        <v>75484</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>105918</v>
+        <v>106619</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1678992657620789</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1434610628952627</v>
+        <v>0.1414604268453981</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1984938709719793</v>
+        <v>0.1998069822122003</v>
       </c>
     </row>
     <row r="38">
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4352</v>
+        <v>4863</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003209730680677433</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01607606880796114</v>
+        <v>0.01796242770783969</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>4835</v>
+        <v>4924</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.005196248991605363</v>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01839074945810948</v>
+        <v>0.01872863781826132</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3</v>
@@ -3193,19 +3193,19 @@
         <v>2235</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6349</v>
+        <v>6529</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.004188460256909796</v>
+        <v>0.004188460256909799</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001170450823362628</v>
+        <v>0.001161795546410647</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01189851747367043</v>
+        <v>0.01223591461638283</v>
       </c>
     </row>
     <row r="39">
@@ -3297,19 +3297,19 @@
         <v>17409</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9319</v>
+        <v>9850</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>30487</v>
+        <v>30170</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.02419012903935973</v>
+        <v>0.02419012903935974</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01294903099000047</v>
+        <v>0.01368657397026738</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04236141606856102</v>
+        <v>0.04192157872832231</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>27</v>
@@ -3318,19 +3318,19 @@
         <v>19802</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>13074</v>
+        <v>13728</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>27704</v>
+        <v>29181</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.02567862087874086</v>
+        <v>0.02567862087874087</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01695407107761467</v>
+        <v>0.01780159958351599</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03592562965013498</v>
+        <v>0.03784063449525455</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>40</v>
@@ -3339,19 +3339,19 @@
         <v>37212</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>25804</v>
+        <v>26012</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>51168</v>
+        <v>52045</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02496007030036679</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01730822277240635</v>
+        <v>0.01744749749439207</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03432148324207931</v>
+        <v>0.03490978618331247</v>
       </c>
     </row>
     <row r="41">
@@ -3368,19 +3368,19 @@
         <v>71024</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>54690</v>
+        <v>55815</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>90830</v>
+        <v>92526</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.09868796656533513</v>
+        <v>0.0986879665653351</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07599076212619511</v>
+        <v>0.07755416447383141</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1262082403866739</v>
+        <v>0.1285640864574236</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>88</v>
@@ -3389,19 +3389,19 @@
         <v>70142</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>56946</v>
+        <v>55499</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>86668</v>
+        <v>88906</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.09095706250750168</v>
+        <v>0.0909570625075017</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07384487678278516</v>
+        <v>0.07196853873028011</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.112387206518457</v>
+        <v>0.1152882934808853</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>148</v>
@@ -3410,19 +3410,19 @@
         <v>141167</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>120287</v>
+        <v>120918</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>165012</v>
+        <v>164987</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09468905850179635</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08068365052239151</v>
+        <v>0.08110711748620987</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1106837233559798</v>
+        <v>0.1106667754943855</v>
       </c>
     </row>
     <row r="42">
@@ -3439,19 +3439,19 @@
         <v>308373</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>277757</v>
+        <v>279545</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>341290</v>
+        <v>340339</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4284822583649811</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3859407984043174</v>
+        <v>0.3884256123239994</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4742194929817704</v>
+        <v>0.4728980237288288</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>432</v>
@@ -3460,19 +3460,19 @@
         <v>349659</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>323503</v>
+        <v>321899</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>378757</v>
+        <v>376528</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.4534206026574321</v>
+        <v>0.4534206026574322</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4195022334552751</v>
+        <v>0.417422890235117</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4911533173674173</v>
+        <v>0.4882618370205357</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>695</v>
@@ -3481,19 +3481,19 @@
         <v>658032</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>618240</v>
+        <v>618293</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>698269</v>
+        <v>698145</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4413819328838156</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4146909724147543</v>
+        <v>0.4147265330878088</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4683710364972876</v>
+        <v>0.4682877297174987</v>
       </c>
     </row>
     <row r="43">
@@ -3510,19 +3510,19 @@
         <v>286838</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>255564</v>
+        <v>257788</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>318556</v>
+        <v>318722</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3985596395936116</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3551049247426712</v>
+        <v>0.3581947384770813</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4426313062984689</v>
+        <v>0.4428621020561625</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>363</v>
@@ -3531,19 +3531,19 @@
         <v>287767</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>263142</v>
+        <v>262390</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>315914</v>
+        <v>316046</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3731621385250324</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3412292639153605</v>
+        <v>0.3402535151071136</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4096618091690696</v>
+        <v>0.4098326536344411</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>597</v>
@@ -3552,19 +3552,19 @@
         <v>574606</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>538099</v>
+        <v>534033</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>616275</v>
+        <v>614412</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3854224604154576</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.360935009949733</v>
+        <v>0.3582079232733825</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4133728414712074</v>
+        <v>0.412123226998701</v>
       </c>
     </row>
     <row r="44">
@@ -3581,19 +3581,19 @@
         <v>36042</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>24264</v>
+        <v>24188</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>52161</v>
+        <v>54788</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05008000643671257</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03371438401771495</v>
+        <v>0.03360836653264143</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07247748324205962</v>
+        <v>0.07612813354258455</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>49</v>
@@ -3602,19 +3602,19 @@
         <v>43788</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>31579</v>
+        <v>31732</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>59733</v>
+        <v>58937</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.0567815754312928</v>
+        <v>0.05678157543129281</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0409495724526431</v>
+        <v>0.04114854275839031</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.07745830644418335</v>
+        <v>0.07642598714154404</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>78</v>
@@ -3623,19 +3623,19 @@
         <v>79830</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>62167</v>
+        <v>62943</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>101945</v>
+        <v>100848</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.05354647789856366</v>
+        <v>0.05354647789856364</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04169910499623117</v>
+        <v>0.0422199370875692</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.06838064611238363</v>
+        <v>0.06764454576731825</v>
       </c>
     </row>
     <row r="45">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>7581</v>
+        <v>6729</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.002653267389320823</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.009499205406922716</v>
+        <v>0.008432090089572596</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -3748,19 +3748,19 @@
         <v>2698</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>651</v>
+        <v>736</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>7308</v>
+        <v>6415</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.003245155632148764</v>
+        <v>0.003245155632148765</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0007835005016962781</v>
+        <v>0.0008851336984287693</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.008791109739864737</v>
+        <v>0.007716021724315262</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>6</v>
@@ -3769,19 +3769,19 @@
         <v>4815</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1496</v>
+        <v>1808</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>10224</v>
+        <v>11151</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.002955252353465412</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0009183016265212214</v>
+        <v>0.001109833423358205</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.006274433320392234</v>
+        <v>0.006843741049874659</v>
       </c>
     </row>
     <row r="47">
@@ -3798,19 +3798,19 @@
         <v>21868</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>13437</v>
+        <v>14338</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>33102</v>
+        <v>33518</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02740153565122848</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01683732055184354</v>
+        <v>0.0179657328623227</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04147794259803934</v>
+        <v>0.04199920747551065</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>59</v>
@@ -3819,19 +3819,19 @@
         <v>42110</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>32386</v>
+        <v>31556</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>54195</v>
+        <v>53737</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.0506534042675243</v>
+        <v>0.05065340426752431</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03895695019950887</v>
+        <v>0.03795790614404732</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0651908773398362</v>
+        <v>0.06464017401760515</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>81</v>
@@ -3840,19 +3840,19 @@
         <v>63978</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>51267</v>
+        <v>49481</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>79371</v>
+        <v>78108</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03926477976102565</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03146367254983867</v>
+        <v>0.03036754741943983</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04871197763431937</v>
+        <v>0.04793632009543806</v>
       </c>
     </row>
     <row r="48">
@@ -3869,19 +3869,19 @@
         <v>342622</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>312639</v>
+        <v>314216</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>369110</v>
+        <v>371753</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.4293125354026355</v>
+        <v>0.4293125354026356</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3917424644677292</v>
+        <v>0.3937186760674212</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4625016768713871</v>
+        <v>0.4658140335539807</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>450</v>
@@ -3890,19 +3890,19 @@
         <v>357428</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>332574</v>
+        <v>332498</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>384154</v>
+        <v>382623</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4299472136971322</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.40005010495981</v>
+        <v>0.399958304015179</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4620948493456856</v>
+        <v>0.4602535043981973</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>782</v>
@@ -3911,19 +3911,19 @@
         <v>700051</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>660863</v>
+        <v>659532</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>741754</v>
+        <v>740184</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.4296363521101464</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4055857421456387</v>
+        <v>0.4047688351817506</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4552307941763927</v>
+        <v>0.4542670318064808</v>
       </c>
     </row>
     <row r="49">
@@ -3940,19 +3940,19 @@
         <v>404414</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>375354</v>
+        <v>374452</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>432263</v>
+        <v>433195</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.5067384030327154</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4703262181644406</v>
+        <v>0.4691953588517765</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.541634609532949</v>
+        <v>0.5428020269521074</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>529</v>
@@ -3961,19 +3961,19 @@
         <v>413800</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>388575</v>
+        <v>388697</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>441077</v>
+        <v>440399</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.4977561875457024</v>
+        <v>0.4977561875457026</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.4674126507329247</v>
+        <v>0.4675600784369144</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.5305677208609519</v>
+        <v>0.5297515979224277</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>913</v>
@@ -3982,19 +3982,19 @@
         <v>818214</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>777717</v>
+        <v>778798</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>858149</v>
+        <v>859017</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.5021556223225855</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4773018644200924</v>
+        <v>0.4779653283917136</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.5266644704303283</v>
+        <v>0.5271972511108175</v>
       </c>
     </row>
     <row r="50">
@@ -4011,19 +4011,19 @@
         <v>27050</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>16700</v>
+        <v>17087</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>42611</v>
+        <v>42860</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.03389425852409966</v>
+        <v>0.03389425852409967</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02092577601980837</v>
+        <v>0.02141082440542432</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.05339292128716789</v>
+        <v>0.05370436488587622</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>20</v>
@@ -4032,19 +4032,19 @@
         <v>15295</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>9609</v>
+        <v>9671</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>23638</v>
+        <v>24290</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.01839803885749224</v>
+        <v>0.01839803885749223</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01155839954739381</v>
+        <v>0.01163366732226278</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02843370109797491</v>
+        <v>0.02921852743786595</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>42</v>
@@ -4053,19 +4053,19 @@
         <v>42345</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>30439</v>
+        <v>30485</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>59175</v>
+        <v>59638</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.02598799345277699</v>
+        <v>0.02598799345277698</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01868116777383981</v>
+        <v>0.01870911226350391</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.03631711078056832</v>
+        <v>0.03660091655562958</v>
       </c>
     </row>
     <row r="51">
@@ -4157,19 +4157,19 @@
         <v>33094</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>22618</v>
+        <v>22139</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>47189</v>
+        <v>47923</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.009367758161550695</v>
+        <v>0.009367758161550692</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.006402218561743029</v>
+        <v>0.006266679421409406</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.013357660016996</v>
+        <v>0.01356539488544056</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>58</v>
@@ -4178,19 +4178,19 @@
         <v>43037</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>33330</v>
+        <v>32472</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>56358</v>
+        <v>55160</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01154031603038341</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.008937286668446591</v>
+        <v>0.008707347623177647</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01511206140548445</v>
+        <v>0.01479081640069321</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>90</v>
@@ -4199,19 +4199,19 @@
         <v>76132</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>59766</v>
+        <v>60205</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>95681</v>
+        <v>93898</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01048343825870404</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.008229902261629814</v>
+        <v>0.008290393234463803</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01317541500110401</v>
+        <v>0.01292993581104928</v>
       </c>
     </row>
     <row r="53">
@@ -4228,19 +4228,19 @@
         <v>288477</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>253521</v>
+        <v>252239</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>326614</v>
+        <v>324120</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.08165777079076854</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.07176285938548119</v>
+        <v>0.07139982818632043</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.09245295516677859</v>
+        <v>0.09174678258955783</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>581</v>
@@ -4249,19 +4249,19 @@
         <v>383844</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>351103</v>
+        <v>353316</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>420936</v>
+        <v>419362</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1029260273681421</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.09414684856144864</v>
+        <v>0.09474019843740915</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1128722713764894</v>
+        <v>0.1124500888260736</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>869</v>
@@ -4270,19 +4270,19 @@
         <v>672321</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>621248</v>
+        <v>620484</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>721417</v>
+        <v>718172</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.09257972177993845</v>
+        <v>0.09257972177993844</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.08554689469524646</v>
+        <v>0.08544159748943453</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.09934033507830188</v>
+        <v>0.09889344938023192</v>
       </c>
     </row>
     <row r="54">
@@ -4299,19 +4299,19 @@
         <v>2062732</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2003384</v>
+        <v>1996672</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2131905</v>
+        <v>2125349</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.5838864902059502</v>
+        <v>0.5838864902059503</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.5670872292587379</v>
+        <v>0.5651873609584959</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.6034670298090892</v>
+        <v>0.6016110336228238</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>3181</v>
@@ -4320,19 +4320,19 @@
         <v>2159939</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>2108188</v>
+        <v>2107487</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2216650</v>
+        <v>2214017</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.5791781962172482</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.5653014515633568</v>
+        <v>0.5651134466116252</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.5943848766271104</v>
+        <v>0.5936788847180346</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>5186</v>
@@ -4341,19 +4341,19 @@
         <v>4222671</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>4143038</v>
+        <v>4140899</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>4309050</v>
+        <v>4310389</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.5814686260053691</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.570503029723505</v>
+        <v>0.5702085169855746</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.5933630922606923</v>
+        <v>0.5935475511507365</v>
       </c>
     </row>
     <row r="55">
@@ -4370,19 +4370,19 @@
         <v>1066933</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1000494</v>
+        <v>1008714</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1121945</v>
+        <v>1128023</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3020109729866096</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2832044398877673</v>
+        <v>0.2855311834370107</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3175830905795023</v>
+        <v>0.3193034740637945</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1449</v>
@@ -4391,19 +4391,19 @@
         <v>1072784</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1022634</v>
+        <v>1021791</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1123668</v>
+        <v>1118606</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2876622556809867</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2742148350270092</v>
+        <v>0.2739888079861221</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3013066322880341</v>
+        <v>0.2999492683683413</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2431</v>
@@ -4412,19 +4412,19 @@
         <v>2139717</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2059274</v>
+        <v>2060534</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2217393</v>
+        <v>2219940</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.2946424335579387</v>
+        <v>0.2946424335579386</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2835653685038646</v>
+        <v>0.2837388962464815</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3053386167910741</v>
+        <v>0.3056893461178707</v>
       </c>
     </row>
     <row r="56">
@@ -4441,19 +4441,19 @@
         <v>81526</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>61712</v>
+        <v>61982</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>106364</v>
+        <v>103703</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.02307700785512112</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01746843012587225</v>
+        <v>0.01754486620395429</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03010789979872012</v>
+        <v>0.0293547314755099</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>86</v>
@@ -4462,19 +4462,19 @@
         <v>69713</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>55132</v>
+        <v>55515</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>86151</v>
+        <v>89368</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01869320470323954</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.0147833112436965</v>
+        <v>0.0148860551626779</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02310104197535099</v>
+        <v>0.02396360615556189</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>155</v>
@@ -4483,19 +4483,19 @@
         <v>151238</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>126093</v>
+        <v>127276</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>183850</v>
+        <v>182175</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.02082578039804989</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.01736318138302015</v>
+        <v>0.01752613044872984</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.02531643388367461</v>
+        <v>0.0250857928223592</v>
       </c>
     </row>
     <row r="57">
